--- a/datafarming_research/cnt_design.xlsx
+++ b/datafarming_research/cnt_design.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub_local\simopt\datafarming_research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65cce0edbcb6c14b/Desktop/GitHub/simopt/datafarming_research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB920F16-D5AF-4B3D-B13F-F8A7A26A54A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{FB920F16-D5AF-4B3D-B13F-F8A7A26A54A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAA5B278-564D-455F-9064-41C59E422A06}"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="180" windowWidth="14400" windowHeight="9190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1290" yWindow="6600" windowWidth="21830" windowHeight="15810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,12 +103,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -123,10 +129,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,8 +418,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E40" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O60" sqref="O60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2884,63 +2894,63 @@
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A41">
+      <c r="A41" s="3">
         <v>1.2</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="3">
         <v>1.0625</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="3">
         <v>2.375</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="3">
         <v>0.48749999999999999</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="4">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="4">
         <f t="shared" si="1"/>
         <v>1.2749999999999999</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="4">
         <f t="shared" si="2"/>
         <v>1.3546874999999998</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="4">
         <f t="shared" si="3"/>
         <v>1.4393554687499999</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41" s="4">
         <f t="shared" si="4"/>
         <v>2.85</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J41" s="4">
         <f t="shared" si="5"/>
         <v>3.0281249999999997</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41" s="5">
         <f t="shared" si="6"/>
         <v>3.2173828124999995</v>
       </c>
-      <c r="L41" s="2">
+      <c r="L41" s="5">
         <f t="shared" si="7"/>
         <v>3.4184692382812498</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M41" s="5">
         <f t="shared" si="8"/>
         <v>0.58499999999999996</v>
       </c>
-      <c r="N41" s="2">
+      <c r="N41" s="5">
         <f t="shared" si="9"/>
         <v>0.62156249999999991</v>
       </c>
-      <c r="O41" s="2">
+      <c r="O41" s="5">
         <f t="shared" si="10"/>
         <v>0.66041015624999988</v>
       </c>
-      <c r="P41" s="2">
+      <c r="P41" s="5">
         <f t="shared" si="11"/>
         <v>0.70168579101562489</v>
       </c>
